--- a/firebase_data_from_spyEnsembleVO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="669">
   <si>
     <t>date</t>
   </si>
@@ -1706,6 +1706,12 @@
   </si>
   <si>
     <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2372,7 +2378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H558"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2476,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2502,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2554,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2580,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2632,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2762,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2788,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2866,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2892,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2918,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2944,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2970,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3048,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3074,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3100,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3126,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3152,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3178,7 +3184,7 @@
         <v>0.2908075432437917</v>
       </c>
       <c r="H31" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3204,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3230,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3256,7 +3262,7 @@
         <v>0.4823725662676658</v>
       </c>
       <c r="H34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3282,7 +3288,7 @@
         <v>0.6315738486230473</v>
       </c>
       <c r="H35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3308,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3334,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3360,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3386,7 +3392,7 @@
         <v>0.565676411981248</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3412,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3438,7 +3444,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3490,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3516,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3646,7 +3652,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3672,7 +3678,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3698,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3724,7 +3730,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3750,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3776,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3828,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3854,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3880,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3932,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3958,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3984,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4010,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4062,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4088,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4140,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4166,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4192,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4218,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4270,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4296,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4322,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4374,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4400,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4426,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4452,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4478,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4504,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4530,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4556,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4582,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4608,7 +4614,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4634,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4660,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4686,7 +4692,7 @@
         <v>0.8776123663611378</v>
       </c>
       <c r="H89" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4712,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4738,7 +4744,7 @@
         <v>0.8988625540685428</v>
       </c>
       <c r="H91" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4764,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4790,7 +4796,7 @@
         <v>0.1221860349289169</v>
       </c>
       <c r="H93" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4816,7 +4822,7 @@
         <v>0.8700559008985698</v>
       </c>
       <c r="H94" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4842,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4868,7 +4874,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4894,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4920,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4946,7 +4952,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4972,7 +4978,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4998,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5024,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5050,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5102,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5128,7 +5134,7 @@
         <v>0.924662230481797</v>
       </c>
       <c r="H106" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5154,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5180,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5206,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5232,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5258,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5284,7 +5290,7 @@
         <v>0.171267841747225</v>
       </c>
       <c r="H112" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5310,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5336,7 +5342,7 @@
         <v>0.2519750577644785</v>
       </c>
       <c r="H114" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5362,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5388,7 +5394,7 @@
         <v>0.2646607957914196</v>
       </c>
       <c r="H116" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5414,7 +5420,7 @@
         <v>0.5666895484282827</v>
       </c>
       <c r="H117" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5440,7 +5446,7 @@
         <v>0.5892807534781774</v>
       </c>
       <c r="H118" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5466,7 +5472,7 @@
         <v>0.5377774003224002</v>
       </c>
       <c r="H119" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5492,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5518,7 +5524,7 @@
         <v>0.488632931106846</v>
       </c>
       <c r="H121" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5544,7 +5550,7 @@
         <v>0.5229171335079502</v>
       </c>
       <c r="H122" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5570,7 +5576,7 @@
         <v>0.6533875755545993</v>
       </c>
       <c r="H123" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5596,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5622,7 +5628,7 @@
         <v>0.8365721415867087</v>
       </c>
       <c r="H125" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5648,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5674,7 +5680,7 @@
         <v>0.7431344435108137</v>
       </c>
       <c r="H127" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5700,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5726,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5752,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5804,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5830,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5856,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5882,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5908,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5934,7 +5940,7 @@
         <v>0.7268485085852595</v>
       </c>
       <c r="H137" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5960,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5986,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6012,7 +6018,7 @@
         <v>0.7939577816068148</v>
       </c>
       <c r="H140" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6038,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6064,7 +6070,7 @@
         <v>0.8036524285692493</v>
       </c>
       <c r="H142" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6090,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6116,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6142,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6168,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6220,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6246,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6272,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6298,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6324,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6350,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6376,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6402,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6428,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6454,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6480,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6506,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6532,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6558,7 +6564,7 @@
         <v>0.7978898089328831</v>
       </c>
       <c r="H161" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6584,7 +6590,7 @@
         <v>0.8550681661092002</v>
       </c>
       <c r="H162" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6610,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6636,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6662,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6714,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6740,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6766,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6792,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6818,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6844,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6870,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6896,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6922,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6948,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6974,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7000,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7026,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7052,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7078,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7104,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7130,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7156,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7182,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7234,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7260,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7286,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7312,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7338,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7364,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7390,7 +7396,7 @@
         <v>0.1681974357885422</v>
       </c>
       <c r="H193" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7416,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7442,7 +7448,7 @@
         <v>0.8797798110889723</v>
       </c>
       <c r="H195" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7494,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7520,7 +7526,7 @@
         <v>0.08864087184884381</v>
       </c>
       <c r="H198" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7598,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7624,7 +7630,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7650,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7676,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7702,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7728,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7780,7 +7786,7 @@
         <v>0.2354671987770182</v>
       </c>
       <c r="H208" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7806,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7832,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7858,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7884,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7910,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7936,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7962,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8014,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8066,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8092,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8118,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8144,7 +8150,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8170,7 +8176,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8196,7 +8202,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8222,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8248,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8274,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8300,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8326,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8352,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8378,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8404,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8430,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8456,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8482,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8508,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8534,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8560,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8586,7 +8592,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8612,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8638,7 +8644,7 @@
         <v>0.04157071219544399</v>
       </c>
       <c r="H241" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8664,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8690,7 +8696,7 @@
         <v>0.7243135391080604</v>
       </c>
       <c r="H243" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8716,7 +8722,7 @@
         <v>0.2038266882469191</v>
       </c>
       <c r="H244" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8742,7 +8748,7 @@
         <v>0.1697054133716173</v>
       </c>
       <c r="H245" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8768,7 +8774,7 @@
         <v>0.8114060488090202</v>
       </c>
       <c r="H246" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8794,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8820,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8846,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8872,7 +8878,7 @@
         <v>0.9995491499287315</v>
       </c>
       <c r="H250" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8898,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8924,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8950,7 +8956,7 @@
         <v>0.6774544151921263</v>
       </c>
       <c r="H253" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8976,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9002,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9028,7 +9034,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9054,7 +9060,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9080,7 +9086,7 @@
         <v>0.4463212592290416</v>
       </c>
       <c r="H258" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9106,7 +9112,7 @@
         <v>0.436683606745248</v>
       </c>
       <c r="H259" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9132,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9158,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9184,7 +9190,7 @@
         <v>0.3686565018055978</v>
       </c>
       <c r="H262" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9210,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9236,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9262,7 +9268,7 @@
         <v>0.690051670037509</v>
       </c>
       <c r="H265" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9288,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9314,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9340,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9366,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9392,7 +9398,7 @@
         <v>0.7110682466127172</v>
       </c>
       <c r="H270" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9418,7 +9424,7 @@
         <v>0.60365344069593</v>
       </c>
       <c r="H271" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9444,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9470,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9496,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9522,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9548,7 +9554,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9574,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9600,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9626,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9678,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9704,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9730,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9756,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9782,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9860,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9886,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9912,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9938,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9964,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9990,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10016,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10042,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10068,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10094,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10120,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10146,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10172,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10198,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10224,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10250,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10276,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10302,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10328,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10354,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10380,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10406,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10432,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10458,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10484,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10510,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10536,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10562,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10588,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10614,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10640,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10666,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10692,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10718,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10744,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10770,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10796,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10822,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10848,7 +10854,7 @@
         <v>0.4264401793693286</v>
       </c>
       <c r="H326" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10874,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10900,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10926,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10952,7 +10958,7 @@
         <v>0.3813541246141574</v>
       </c>
       <c r="H330" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10978,7 +10984,7 @@
         <v>0.6022604535640776</v>
       </c>
       <c r="H331" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11004,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11030,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11056,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11082,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11108,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11134,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11160,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11186,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11212,7 +11218,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11238,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11264,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11290,7 +11296,7 @@
         <v>0.3837697866871526</v>
       </c>
       <c r="H343" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11316,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11342,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11368,7 +11374,7 @@
         <v>0.4784128470816451</v>
       </c>
       <c r="H346" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11394,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11420,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11446,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11472,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11498,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11524,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11550,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11576,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11602,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11628,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11654,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11680,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11706,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11732,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11758,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11784,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11810,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11836,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11862,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11914,7 +11920,7 @@
         <v>0.0006356397502235737</v>
       </c>
       <c r="H367" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11940,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11966,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11992,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12018,7 +12024,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12044,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12070,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12096,7 +12102,7 @@
         <v>0.2602324571342513</v>
       </c>
       <c r="H374" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12122,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12148,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12174,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12200,7 +12206,7 @@
         <v>0.6681320098949201</v>
       </c>
       <c r="H378" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12226,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12252,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12278,7 +12284,7 @@
         <v>0.6424743720133275</v>
       </c>
       <c r="H381" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12304,7 +12310,7 @@
         <v>0.4897676148715414</v>
       </c>
       <c r="H382" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12330,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12356,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12382,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12408,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12434,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12460,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12486,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12512,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12538,7 +12544,7 @@
         <v>0.4169759359529258</v>
       </c>
       <c r="H391" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12564,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12590,7 +12596,7 @@
         <v>0.448395870291445</v>
       </c>
       <c r="H393" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12616,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12642,7 +12648,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12668,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12694,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12720,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12746,7 +12752,7 @@
         <v>0.9767965902883136</v>
       </c>
       <c r="H399" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12772,7 +12778,7 @@
         <v>0.9379142164462745</v>
       </c>
       <c r="H400" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12798,7 +12804,7 @@
         <v>0.2273581344949796</v>
       </c>
       <c r="H401" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12824,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12850,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12876,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12902,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12928,7 +12934,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12954,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12980,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13006,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13032,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13058,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13084,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13110,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13136,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13162,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13188,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13214,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13240,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13266,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13292,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13318,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13344,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13370,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13396,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13422,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13448,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13474,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13500,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13526,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13552,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13578,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13604,7 +13610,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13630,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13656,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13682,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13708,7 +13714,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13734,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13760,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13786,7 +13792,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13812,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13838,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13864,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13890,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13916,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13942,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13968,7 +13974,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13994,7 +14000,7 @@
         <v>0.1039579582149335</v>
       </c>
       <c r="H447" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14020,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14046,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14072,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14098,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14150,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14176,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14202,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14228,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14254,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14280,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14306,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14332,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14358,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14384,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14410,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14436,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14462,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14488,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14514,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14540,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14566,7 +14572,7 @@
         <v>0.3706619595536374</v>
       </c>
       <c r="H469" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14592,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14618,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14644,7 +14650,7 @@
         <v>0.6503847898028786</v>
       </c>
       <c r="H472" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14670,7 +14676,7 @@
         <v>0.6471060540483804</v>
       </c>
       <c r="H473" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14696,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14722,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14748,7 +14754,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14774,7 +14780,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14800,7 +14806,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14826,7 +14832,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14852,7 +14858,7 @@
         <v>0.3695334701414312</v>
       </c>
       <c r="H480" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14878,7 +14884,7 @@
         <v>0.3483093671857184</v>
       </c>
       <c r="H481" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14904,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14930,7 +14936,7 @@
         <v>0.3728858538521013</v>
       </c>
       <c r="H483" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14956,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14982,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15008,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15034,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15060,7 +15066,7 @@
         <v>0.3627014110861483</v>
       </c>
       <c r="H488" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15086,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15112,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15138,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15164,7 +15170,7 @@
         <v>0.3511590155163141</v>
       </c>
       <c r="H492" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15190,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15216,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15242,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15268,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15294,7 +15300,7 @@
         <v>0.4414901040256927</v>
       </c>
       <c r="H497" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15320,7 +15326,7 @@
         <v>0.3093377856830137</v>
       </c>
       <c r="H498" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15346,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15372,7 +15378,7 @@
         <v>0.7080524536027737</v>
       </c>
       <c r="H500" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15398,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15424,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15450,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15476,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15502,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15528,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15554,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15580,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15606,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15632,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15658,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15684,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15710,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15736,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15762,7 +15768,7 @@
         <v>0.1581372089411772</v>
       </c>
       <c r="H515" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15788,7 +15794,7 @@
         <v>0.05250478316833571</v>
       </c>
       <c r="H516" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15814,7 +15820,7 @@
         <v>0.9109665764947299</v>
       </c>
       <c r="H517" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15840,7 +15846,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15866,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15892,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15918,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15944,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15970,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15996,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16022,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16048,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16074,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16100,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16126,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16152,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16178,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16204,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16230,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16256,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16282,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16308,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16334,7 +16340,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16360,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16386,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16412,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16438,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16464,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16490,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16516,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16542,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16568,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16594,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16620,7 +16626,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16646,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16672,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16698,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16724,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16750,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16776,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16802,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16828,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16854,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16864,9 +16870,15 @@
       <c r="B558" t="s">
         <v>563</v>
       </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
       <c r="D558">
         <v>0</v>
       </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
       <c r="F558">
         <v>1</v>
       </c>
@@ -16874,7 +16886,53 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>564</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>1</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
         <v>565</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="673">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2384,7 +2390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2436,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2462,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2488,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2514,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2540,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2566,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2618,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2644,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2670,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2696,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2722,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2748,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2800,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2852,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2878,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2904,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2930,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2956,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2982,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3008,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3034,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3060,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3086,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3112,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3138,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3164,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3190,7 +3196,7 @@
         <v>0.2908075432437917</v>
       </c>
       <c r="H31" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3216,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3242,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3268,7 +3274,7 @@
         <v>0.4823725662676658</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3294,7 +3300,7 @@
         <v>0.6315738486230473</v>
       </c>
       <c r="H35" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3320,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3346,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3372,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3398,7 +3404,7 @@
         <v>0.565676411981248</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3424,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3450,7 +3456,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3476,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3502,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3528,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3554,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3580,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3606,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3632,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3658,7 +3664,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3684,7 +3690,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3710,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3736,7 +3742,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3762,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3788,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3814,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3840,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3866,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3892,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3918,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3944,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3970,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3996,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4022,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4048,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4074,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4100,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4126,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4152,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4178,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4230,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4256,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4282,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4308,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4334,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4360,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4386,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4412,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4438,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4464,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4490,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4516,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4542,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4568,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4594,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4620,7 +4626,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4646,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4672,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4698,7 +4704,7 @@
         <v>0.8776123663611378</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4724,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4750,7 +4756,7 @@
         <v>0.8988625540685428</v>
       </c>
       <c r="H91" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4776,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4802,7 +4808,7 @@
         <v>0.1221860349289169</v>
       </c>
       <c r="H93" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4828,7 +4834,7 @@
         <v>0.8700559008985698</v>
       </c>
       <c r="H94" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4854,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4880,7 +4886,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4906,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4932,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4958,7 +4964,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4984,7 +4990,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5010,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5036,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5062,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5088,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5114,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5140,7 +5146,7 @@
         <v>0.924662230481797</v>
       </c>
       <c r="H106" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5166,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5192,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5218,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5244,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5270,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5296,7 +5302,7 @@
         <v>0.171267841747225</v>
       </c>
       <c r="H112" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5322,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5348,7 +5354,7 @@
         <v>0.2519750577644785</v>
       </c>
       <c r="H114" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5374,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5400,7 +5406,7 @@
         <v>0.2646607957914196</v>
       </c>
       <c r="H116" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5426,7 +5432,7 @@
         <v>0.5666895484282827</v>
       </c>
       <c r="H117" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5452,7 +5458,7 @@
         <v>0.5892807534781774</v>
       </c>
       <c r="H118" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5478,7 +5484,7 @@
         <v>0.5377774003224002</v>
       </c>
       <c r="H119" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5504,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5530,7 +5536,7 @@
         <v>0.488632931106846</v>
       </c>
       <c r="H121" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5556,7 +5562,7 @@
         <v>0.5229171335079502</v>
       </c>
       <c r="H122" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5582,7 +5588,7 @@
         <v>0.6533875755545993</v>
       </c>
       <c r="H123" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5608,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5634,7 +5640,7 @@
         <v>0.8365721415867087</v>
       </c>
       <c r="H125" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5660,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5686,7 +5692,7 @@
         <v>0.7431344435108137</v>
       </c>
       <c r="H127" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5712,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5738,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5764,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5790,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5816,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5842,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5894,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5920,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5946,7 +5952,7 @@
         <v>0.7268485085852595</v>
       </c>
       <c r="H137" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5972,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5998,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6024,7 +6030,7 @@
         <v>0.7939577816068148</v>
       </c>
       <c r="H140" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6050,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6076,7 +6082,7 @@
         <v>0.8036524285692493</v>
       </c>
       <c r="H142" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6102,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6128,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6154,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6180,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6206,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6232,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6258,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6284,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6310,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6336,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6362,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6388,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6414,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6440,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6466,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6492,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6518,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6544,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6570,7 +6576,7 @@
         <v>0.7978898089328831</v>
       </c>
       <c r="H161" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6596,7 +6602,7 @@
         <v>0.8550681661092002</v>
       </c>
       <c r="H162" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6622,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6648,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6674,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6700,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6726,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6752,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6778,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6804,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6830,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6856,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6882,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6908,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6934,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6960,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6986,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7012,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7038,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7064,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7090,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7116,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7142,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7168,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7194,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7220,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7246,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7272,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7298,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7324,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7350,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7376,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7402,7 +7408,7 @@
         <v>0.1681974357885422</v>
       </c>
       <c r="H193" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7428,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7454,7 +7460,7 @@
         <v>0.8797798110889723</v>
       </c>
       <c r="H195" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7480,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7506,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7532,7 +7538,7 @@
         <v>0.08864087184884381</v>
       </c>
       <c r="H198" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7558,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7584,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7610,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7636,7 +7642,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7662,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7688,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7714,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7740,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7766,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7792,7 +7798,7 @@
         <v>0.2354671987770182</v>
       </c>
       <c r="H208" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7818,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7844,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7870,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7896,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7922,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7948,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7974,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8000,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8026,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8052,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8078,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8104,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8130,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8156,7 +8162,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8182,7 +8188,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8208,7 +8214,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8234,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8260,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8286,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8312,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8338,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8364,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8390,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8416,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8442,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8468,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8494,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8520,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8546,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8572,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8598,7 +8604,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8624,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8650,7 +8656,7 @@
         <v>0.04157071219544399</v>
       </c>
       <c r="H241" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8676,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8702,7 +8708,7 @@
         <v>0.7243135391080604</v>
       </c>
       <c r="H243" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8728,7 +8734,7 @@
         <v>0.2038266882469191</v>
       </c>
       <c r="H244" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8754,7 +8760,7 @@
         <v>0.1697054133716173</v>
       </c>
       <c r="H245" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8780,7 +8786,7 @@
         <v>0.8114060488090202</v>
       </c>
       <c r="H246" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8806,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8832,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8858,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8884,7 +8890,7 @@
         <v>0.9995491499287315</v>
       </c>
       <c r="H250" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8910,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8936,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8962,7 +8968,7 @@
         <v>0.6774544151921263</v>
       </c>
       <c r="H253" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8988,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9014,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9040,7 +9046,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9066,7 +9072,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9092,7 +9098,7 @@
         <v>0.4463212592290416</v>
       </c>
       <c r="H258" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9118,7 +9124,7 @@
         <v>0.436683606745248</v>
       </c>
       <c r="H259" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9144,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9170,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9196,7 +9202,7 @@
         <v>0.3686565018055978</v>
       </c>
       <c r="H262" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9222,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9248,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9274,7 +9280,7 @@
         <v>0.690051670037509</v>
       </c>
       <c r="H265" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9300,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9326,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9352,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9378,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9404,7 +9410,7 @@
         <v>0.7110682466127172</v>
       </c>
       <c r="H270" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9430,7 +9436,7 @@
         <v>0.60365344069593</v>
       </c>
       <c r="H271" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9456,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9482,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9508,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9534,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9560,7 +9566,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9586,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9612,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9638,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9664,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9690,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9716,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9742,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9768,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9794,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9820,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9846,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9872,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9898,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9924,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9950,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9976,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10002,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10028,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10054,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10080,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10106,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10132,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10158,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10184,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10210,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10236,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10262,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10288,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10314,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10340,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10366,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10392,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10418,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10444,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10470,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10496,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10522,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10548,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10574,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10600,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10626,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10652,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10678,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10704,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10730,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10756,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10782,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10808,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10834,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10860,7 +10866,7 @@
         <v>0.4264401793693286</v>
       </c>
       <c r="H326" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10886,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10912,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10938,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10964,7 +10970,7 @@
         <v>0.3813541246141574</v>
       </c>
       <c r="H330" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10990,7 +10996,7 @@
         <v>0.6022604535640776</v>
       </c>
       <c r="H331" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11016,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11042,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11068,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11094,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11120,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11146,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11172,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11198,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11224,7 +11230,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11250,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11276,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11302,7 +11308,7 @@
         <v>0.3837697866871526</v>
       </c>
       <c r="H343" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11328,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11354,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11380,7 +11386,7 @@
         <v>0.4784128470816451</v>
       </c>
       <c r="H346" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11406,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11432,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11458,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11484,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11510,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11536,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11562,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11588,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11614,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11640,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11666,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11692,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11718,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11744,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11770,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11796,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11822,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11848,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11874,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11900,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11926,7 +11932,7 @@
         <v>0.0006356397502235737</v>
       </c>
       <c r="H367" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11952,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11978,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12004,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12030,7 +12036,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12056,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12082,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12108,7 +12114,7 @@
         <v>0.2602324571342513</v>
       </c>
       <c r="H374" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12134,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12160,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12186,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12212,7 +12218,7 @@
         <v>0.6681320098949201</v>
       </c>
       <c r="H378" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12238,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12264,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12290,7 +12296,7 @@
         <v>0.6424743720133275</v>
       </c>
       <c r="H381" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12316,7 +12322,7 @@
         <v>0.4897676148715414</v>
       </c>
       <c r="H382" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12342,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12368,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12394,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12420,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12446,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12472,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12498,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12524,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12550,7 +12556,7 @@
         <v>0.4169759359529258</v>
       </c>
       <c r="H391" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12576,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12602,7 +12608,7 @@
         <v>0.448395870291445</v>
       </c>
       <c r="H393" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12628,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12654,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12680,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12706,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12732,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12758,7 +12764,7 @@
         <v>0.9767965902883136</v>
       </c>
       <c r="H399" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12784,7 +12790,7 @@
         <v>0.9379142164462745</v>
       </c>
       <c r="H400" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12810,7 +12816,7 @@
         <v>0.2273581344949796</v>
       </c>
       <c r="H401" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12836,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12862,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12888,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12914,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12940,7 +12946,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12966,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12992,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13018,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13044,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13070,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13096,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13122,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13148,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13174,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13200,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13226,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13252,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13278,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13304,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13330,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13356,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13382,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13408,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13434,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13460,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13486,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13512,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13538,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13564,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13590,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13616,7 +13622,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13642,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13668,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13694,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13720,7 +13726,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13746,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13772,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13798,7 +13804,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13824,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13850,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13876,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13902,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13928,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13954,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13980,7 +13986,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14006,7 +14012,7 @@
         <v>0.1039579582149335</v>
       </c>
       <c r="H447" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14032,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14058,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14084,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14110,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14136,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14162,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14188,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14214,7 +14220,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14240,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14266,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14292,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14318,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14344,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14370,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14396,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14422,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14448,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14474,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14500,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14526,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14552,7 +14558,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14578,7 +14584,7 @@
         <v>0.3706619595536374</v>
       </c>
       <c r="H469" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14604,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14630,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14656,7 +14662,7 @@
         <v>0.6503847898028786</v>
       </c>
       <c r="H472" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14682,7 +14688,7 @@
         <v>0.6471060540483804</v>
       </c>
       <c r="H473" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14708,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14734,7 +14740,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14760,7 +14766,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14786,7 +14792,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14812,7 +14818,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14838,7 +14844,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14864,7 +14870,7 @@
         <v>0.3695334701414312</v>
       </c>
       <c r="H480" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14890,7 +14896,7 @@
         <v>0.3483093671857184</v>
       </c>
       <c r="H481" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14916,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14942,7 +14948,7 @@
         <v>0.3728858538521013</v>
       </c>
       <c r="H483" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14968,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14994,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15020,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15046,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15072,7 +15078,7 @@
         <v>0.3627014110861483</v>
       </c>
       <c r="H488" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15098,7 +15104,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15124,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15150,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15176,7 +15182,7 @@
         <v>0.3511590155163141</v>
       </c>
       <c r="H492" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15202,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15228,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15254,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15280,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15306,7 +15312,7 @@
         <v>0.4414901040256927</v>
       </c>
       <c r="H497" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15332,7 +15338,7 @@
         <v>0.3093377856830137</v>
       </c>
       <c r="H498" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15358,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15384,7 +15390,7 @@
         <v>0.7080524536027737</v>
       </c>
       <c r="H500" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15410,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15436,7 +15442,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15462,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15488,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15514,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15540,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15566,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15592,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15618,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15644,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15670,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15696,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15722,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15748,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15774,7 +15780,7 @@
         <v>0.1581372089411772</v>
       </c>
       <c r="H515" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15800,7 +15806,7 @@
         <v>0.05250478316833571</v>
       </c>
       <c r="H516" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15826,7 +15832,7 @@
         <v>0.9109665764947299</v>
       </c>
       <c r="H517" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15852,7 +15858,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15878,7 +15884,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15904,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15930,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15956,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15982,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16008,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16034,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16060,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16086,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16112,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16138,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16164,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16190,7 +16196,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16216,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16242,7 +16248,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16268,7 +16274,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16294,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16320,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16346,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16372,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16398,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16424,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16450,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16476,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16502,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16528,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16554,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16580,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16606,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16632,7 +16638,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16658,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16684,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16710,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16736,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16762,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16788,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16814,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16840,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16866,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16892,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16918,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16944,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16970,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16980,9 +16986,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>0</v>
       </c>
@@ -16990,7 +17002,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
         <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="675">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2390,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2442,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2468,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2520,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2572,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2598,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2624,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2650,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2676,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2702,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2728,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2754,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2780,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2806,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2832,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2884,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2910,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2936,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2962,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2988,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3014,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3040,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3066,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3092,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3118,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3144,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3170,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3196,7 +3202,7 @@
         <v>0.2908075432437917</v>
       </c>
       <c r="H31" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3222,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3274,7 +3280,7 @@
         <v>0.4823725662676658</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3300,7 +3306,7 @@
         <v>0.6315738486230473</v>
       </c>
       <c r="H35" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3352,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3378,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3404,7 +3410,7 @@
         <v>0.565676411981248</v>
       </c>
       <c r="H39" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3430,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3456,7 +3462,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3482,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3508,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3534,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3560,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3586,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3612,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3638,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3664,7 +3670,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3690,7 +3696,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3716,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3742,7 +3748,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3768,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3794,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3820,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3846,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3898,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3950,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3976,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4002,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4028,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4054,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4080,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4106,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4132,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4184,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4210,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4236,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4262,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4314,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4340,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4366,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4392,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4418,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4444,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4470,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4496,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4522,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4548,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4574,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4600,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4626,7 +4632,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4652,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4678,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4704,7 +4710,7 @@
         <v>0.8776123663611378</v>
       </c>
       <c r="H89" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4730,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4756,7 +4762,7 @@
         <v>0.8988625540685428</v>
       </c>
       <c r="H91" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4782,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4808,7 +4814,7 @@
         <v>0.1221860349289169</v>
       </c>
       <c r="H93" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4834,7 +4840,7 @@
         <v>0.8700559008985698</v>
       </c>
       <c r="H94" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4860,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4886,7 +4892,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4912,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4938,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4964,7 +4970,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4990,7 +4996,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5016,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5042,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5068,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5094,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5120,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5146,7 +5152,7 @@
         <v>0.924662230481797</v>
       </c>
       <c r="H106" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5172,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5198,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5224,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5250,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5276,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5302,7 +5308,7 @@
         <v>0.171267841747225</v>
       </c>
       <c r="H112" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5328,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5354,7 +5360,7 @@
         <v>0.2519750577644785</v>
       </c>
       <c r="H114" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5380,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5406,7 +5412,7 @@
         <v>0.2646607957914196</v>
       </c>
       <c r="H116" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5432,7 +5438,7 @@
         <v>0.5666895484282827</v>
       </c>
       <c r="H117" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5458,7 +5464,7 @@
         <v>0.5892807534781774</v>
       </c>
       <c r="H118" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5484,7 +5490,7 @@
         <v>0.5377774003224002</v>
       </c>
       <c r="H119" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5510,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5536,7 +5542,7 @@
         <v>0.488632931106846</v>
       </c>
       <c r="H121" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5562,7 +5568,7 @@
         <v>0.5229171335079502</v>
       </c>
       <c r="H122" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5588,7 +5594,7 @@
         <v>0.6533875755545993</v>
       </c>
       <c r="H123" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5614,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5640,7 +5646,7 @@
         <v>0.8365721415867087</v>
       </c>
       <c r="H125" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5666,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5692,7 +5698,7 @@
         <v>0.7431344435108137</v>
       </c>
       <c r="H127" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5718,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5744,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5770,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5796,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5822,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5848,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5874,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5900,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5926,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5952,7 +5958,7 @@
         <v>0.7268485085852595</v>
       </c>
       <c r="H137" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5978,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6004,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6030,7 +6036,7 @@
         <v>0.7939577816068148</v>
       </c>
       <c r="H140" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6056,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6082,7 +6088,7 @@
         <v>0.8036524285692493</v>
       </c>
       <c r="H142" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6108,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6134,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6160,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6186,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6212,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6238,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6264,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6290,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6316,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6342,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6368,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6394,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6420,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6446,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6472,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6498,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6524,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6550,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6576,7 +6582,7 @@
         <v>0.7978898089328831</v>
       </c>
       <c r="H161" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6602,7 +6608,7 @@
         <v>0.8550681661092002</v>
       </c>
       <c r="H162" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6628,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6654,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6680,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6706,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6732,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6758,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6784,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6810,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6836,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6862,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6888,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6914,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6940,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6966,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6992,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7018,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7044,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7070,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7096,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7122,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7148,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7174,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7200,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7226,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7252,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7278,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7304,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7330,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7356,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7382,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7408,7 +7414,7 @@
         <v>0.1681974357885422</v>
       </c>
       <c r="H193" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7434,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7460,7 +7466,7 @@
         <v>0.8797798110889723</v>
       </c>
       <c r="H195" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7486,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7512,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7538,7 +7544,7 @@
         <v>0.08864087184884381</v>
       </c>
       <c r="H198" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7564,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7590,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7642,7 +7648,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7668,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7694,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7720,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7746,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7772,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7798,7 +7804,7 @@
         <v>0.2354671987770182</v>
       </c>
       <c r="H208" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7824,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7850,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7876,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7902,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7928,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7954,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7980,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8006,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8032,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8058,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8084,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8110,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8136,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8162,7 +8168,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8188,7 +8194,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8214,7 +8220,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8240,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8266,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8292,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8318,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8344,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8370,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8396,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8422,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8448,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8474,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8500,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8526,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8552,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8578,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8604,7 +8610,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8630,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8656,7 +8662,7 @@
         <v>0.04157071219544399</v>
       </c>
       <c r="H241" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8682,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8708,7 +8714,7 @@
         <v>0.7243135391080604</v>
       </c>
       <c r="H243" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8734,7 +8740,7 @@
         <v>0.2038266882469191</v>
       </c>
       <c r="H244" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8760,7 +8766,7 @@
         <v>0.1697054133716173</v>
       </c>
       <c r="H245" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8786,7 +8792,7 @@
         <v>0.8114060488090202</v>
       </c>
       <c r="H246" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8812,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8838,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8864,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8890,7 +8896,7 @@
         <v>0.9995491499287315</v>
       </c>
       <c r="H250" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8916,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8942,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8968,7 +8974,7 @@
         <v>0.6774544151921263</v>
       </c>
       <c r="H253" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8994,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9020,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9046,7 +9052,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9072,7 +9078,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9098,7 +9104,7 @@
         <v>0.4463212592290416</v>
       </c>
       <c r="H258" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9124,7 +9130,7 @@
         <v>0.436683606745248</v>
       </c>
       <c r="H259" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9150,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9176,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9202,7 +9208,7 @@
         <v>0.3686565018055978</v>
       </c>
       <c r="H262" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9228,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9254,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9280,7 +9286,7 @@
         <v>0.690051670037509</v>
       </c>
       <c r="H265" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9306,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9332,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9358,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9384,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9410,7 +9416,7 @@
         <v>0.7110682466127172</v>
       </c>
       <c r="H270" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9436,7 +9442,7 @@
         <v>0.60365344069593</v>
       </c>
       <c r="H271" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9462,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9488,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9514,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9540,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9566,7 +9572,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9592,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9618,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9644,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9670,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9696,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9722,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9748,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9774,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9800,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9826,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9852,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9878,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9904,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9930,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9956,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9982,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10008,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10034,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10060,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10086,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10112,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10138,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10164,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10190,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10216,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10242,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10268,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10294,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10320,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10346,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10372,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10398,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10424,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10450,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10476,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10502,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10528,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10554,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10580,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10606,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10632,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10658,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10684,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10710,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10736,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10762,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10788,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10814,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10840,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10866,7 +10872,7 @@
         <v>0.4264401793693286</v>
       </c>
       <c r="H326" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10892,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10918,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10944,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10970,7 +10976,7 @@
         <v>0.3813541246141574</v>
       </c>
       <c r="H330" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10996,7 +11002,7 @@
         <v>0.6022604535640776</v>
       </c>
       <c r="H331" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11022,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11048,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11074,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11100,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11126,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11152,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11178,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11204,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11230,7 +11236,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11256,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11282,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11308,7 +11314,7 @@
         <v>0.3837697866871526</v>
       </c>
       <c r="H343" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11334,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11360,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11386,7 +11392,7 @@
         <v>0.4784128470816451</v>
       </c>
       <c r="H346" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11412,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11438,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11464,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11490,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11516,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11542,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11568,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11594,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11620,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11646,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11672,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11698,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11724,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11750,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11776,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11802,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11828,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11854,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11880,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11906,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11932,7 +11938,7 @@
         <v>0.0006356397502235737</v>
       </c>
       <c r="H367" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11958,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11984,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12010,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12036,7 +12042,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12062,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12088,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12114,7 +12120,7 @@
         <v>0.2602324571342513</v>
       </c>
       <c r="H374" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12140,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12166,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12192,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12218,7 +12224,7 @@
         <v>0.6681320098949201</v>
       </c>
       <c r="H378" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12244,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12270,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12296,7 +12302,7 @@
         <v>0.6424743720133275</v>
       </c>
       <c r="H381" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12322,7 +12328,7 @@
         <v>0.4897676148715414</v>
       </c>
       <c r="H382" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12348,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12374,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12400,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12426,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12452,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12478,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12504,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12530,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12556,7 +12562,7 @@
         <v>0.4169759359529258</v>
       </c>
       <c r="H391" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12582,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12608,7 +12614,7 @@
         <v>0.448395870291445</v>
       </c>
       <c r="H393" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12634,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12660,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12686,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12712,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12738,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12764,7 +12770,7 @@
         <v>0.9767965902883136</v>
       </c>
       <c r="H399" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12790,7 +12796,7 @@
         <v>0.9379142164462745</v>
       </c>
       <c r="H400" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12816,7 +12822,7 @@
         <v>0.2273581344949796</v>
       </c>
       <c r="H401" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12842,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12868,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12894,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12920,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12946,7 +12952,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12972,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12998,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13024,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13050,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13076,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13102,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13128,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13154,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13180,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13206,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13232,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13258,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13284,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13310,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13336,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13362,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13388,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13414,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13440,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13466,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13492,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13518,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13544,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13570,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13596,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13622,7 +13628,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13648,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13674,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13700,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13726,7 +13732,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13752,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13778,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13804,7 +13810,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13830,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13856,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13882,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13908,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13934,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13960,7 +13966,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13986,7 +13992,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14012,7 +14018,7 @@
         <v>0.1039579582149335</v>
       </c>
       <c r="H447" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14038,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14064,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14090,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14116,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14142,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14168,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14194,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14220,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14246,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14272,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14298,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14324,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14350,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14376,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14402,7 +14408,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14428,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14454,7 +14460,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14480,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14506,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14532,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14558,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14584,7 +14590,7 @@
         <v>0.3706619595536374</v>
       </c>
       <c r="H469" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14610,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14636,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14662,7 +14668,7 @@
         <v>0.6503847898028786</v>
       </c>
       <c r="H472" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14688,7 +14694,7 @@
         <v>0.6471060540483804</v>
       </c>
       <c r="H473" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14714,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14740,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14766,7 +14772,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14792,7 +14798,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14818,7 +14824,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14844,7 +14850,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14870,7 +14876,7 @@
         <v>0.3695334701414312</v>
       </c>
       <c r="H480" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14896,7 +14902,7 @@
         <v>0.3483093671857184</v>
       </c>
       <c r="H481" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14922,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14948,7 +14954,7 @@
         <v>0.3728858538521013</v>
       </c>
       <c r="H483" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14974,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15000,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15026,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15052,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15078,7 +15084,7 @@
         <v>0.3627014110861483</v>
       </c>
       <c r="H488" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15104,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15130,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15156,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15182,7 +15188,7 @@
         <v>0.3511590155163141</v>
       </c>
       <c r="H492" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15208,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15234,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15260,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15286,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15312,7 +15318,7 @@
         <v>0.4414901040256927</v>
       </c>
       <c r="H497" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15338,7 +15344,7 @@
         <v>0.3093377856830137</v>
       </c>
       <c r="H498" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15364,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15390,7 +15396,7 @@
         <v>0.7080524536027737</v>
       </c>
       <c r="H500" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15416,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15442,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15468,7 +15474,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15494,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15520,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15546,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15572,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15598,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15624,7 +15630,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15650,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15676,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15702,7 +15708,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15728,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15754,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15780,7 +15786,7 @@
         <v>0.1581372089411772</v>
       </c>
       <c r="H515" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15806,7 +15812,7 @@
         <v>0.05250478316833571</v>
       </c>
       <c r="H516" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15832,7 +15838,7 @@
         <v>0.9109665764947299</v>
       </c>
       <c r="H517" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15858,7 +15864,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15884,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15910,7 +15916,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15936,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15962,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15988,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16014,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16040,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16066,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16092,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16118,7 +16124,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16144,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16170,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16196,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16222,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16248,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16274,7 +16280,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16300,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16326,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16352,7 +16358,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16378,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16404,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16430,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16456,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16482,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16508,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16534,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16560,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16586,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16612,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16638,7 +16644,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16664,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16690,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16716,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16742,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16768,7 +16774,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16794,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16820,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16846,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16872,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16898,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16924,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16950,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16976,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17002,7 +17008,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17028,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17038,9 +17044,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>0</v>
       </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
       <c r="F564">
         <v>0</v>
       </c>
@@ -17048,7 +17060,53 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
         <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="681">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2396,7 +2414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2448,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2474,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2500,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2526,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2552,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2578,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2604,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2630,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2656,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2682,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2708,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2734,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2760,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2786,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2812,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2838,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2864,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2890,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2916,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2942,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2968,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2994,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3020,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3046,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3072,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3098,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3124,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3150,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3176,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3202,7 +3220,7 @@
         <v>0.2908075432437917</v>
       </c>
       <c r="H31" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3228,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3254,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3280,7 +3298,7 @@
         <v>0.4823725662676658</v>
       </c>
       <c r="H34" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3306,7 +3324,7 @@
         <v>0.6315738486230473</v>
       </c>
       <c r="H35" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3332,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3358,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3384,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3410,7 +3428,7 @@
         <v>0.565676411981248</v>
       </c>
       <c r="H39" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3436,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3462,7 +3480,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3488,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3514,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3540,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3566,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3592,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3618,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3644,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3670,7 +3688,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3696,7 +3714,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3722,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3748,7 +3766,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3774,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3826,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3852,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3878,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3904,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3930,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3956,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3982,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4008,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4034,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4060,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4086,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4112,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4138,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4164,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4190,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4216,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4242,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4268,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4294,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4320,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4346,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4372,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4398,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4424,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4450,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4476,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4502,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4528,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4554,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4580,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4606,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4632,7 +4650,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4658,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4684,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4710,7 +4728,7 @@
         <v>0.8776123663611378</v>
       </c>
       <c r="H89" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4736,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4762,7 +4780,7 @@
         <v>0.8988625540685428</v>
       </c>
       <c r="H91" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4788,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4814,7 +4832,7 @@
         <v>0.1221860349289169</v>
       </c>
       <c r="H93" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4840,7 +4858,7 @@
         <v>0.8700559008985698</v>
       </c>
       <c r="H94" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4866,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4892,7 +4910,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4918,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4944,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4970,7 +4988,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4996,7 +5014,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5022,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5048,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5074,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5100,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5126,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5152,7 +5170,7 @@
         <v>0.924662230481797</v>
       </c>
       <c r="H106" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5178,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5204,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5230,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5256,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5282,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5308,7 +5326,7 @@
         <v>0.171267841747225</v>
       </c>
       <c r="H112" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5334,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5360,7 +5378,7 @@
         <v>0.2519750577644785</v>
       </c>
       <c r="H114" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5386,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5412,7 +5430,7 @@
         <v>0.2646607957914196</v>
       </c>
       <c r="H116" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5438,7 +5456,7 @@
         <v>0.5666895484282827</v>
       </c>
       <c r="H117" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5464,7 +5482,7 @@
         <v>0.5892807534781774</v>
       </c>
       <c r="H118" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5490,7 +5508,7 @@
         <v>0.5377774003224002</v>
       </c>
       <c r="H119" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5516,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5542,7 +5560,7 @@
         <v>0.488632931106846</v>
       </c>
       <c r="H121" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5568,7 +5586,7 @@
         <v>0.5229171335079502</v>
       </c>
       <c r="H122" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5594,7 +5612,7 @@
         <v>0.6533875755545993</v>
       </c>
       <c r="H123" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5620,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5646,7 +5664,7 @@
         <v>0.8365721415867087</v>
       </c>
       <c r="H125" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5672,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5698,7 +5716,7 @@
         <v>0.7431344435108137</v>
       </c>
       <c r="H127" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5724,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5750,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5776,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5802,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5828,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5854,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5880,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5906,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5932,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5958,7 +5976,7 @@
         <v>0.7268485085852595</v>
       </c>
       <c r="H137" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5984,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6010,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6036,7 +6054,7 @@
         <v>0.7939577816068148</v>
       </c>
       <c r="H140" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6062,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6088,7 +6106,7 @@
         <v>0.8036524285692493</v>
       </c>
       <c r="H142" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6114,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6140,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6166,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6192,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6218,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6244,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6270,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6296,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6322,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6348,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6374,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6400,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6426,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6452,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6478,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6504,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6530,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6556,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6582,7 +6600,7 @@
         <v>0.7978898089328831</v>
       </c>
       <c r="H161" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6608,7 +6626,7 @@
         <v>0.8550681661092002</v>
       </c>
       <c r="H162" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6634,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6660,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6686,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6712,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6738,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6764,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6790,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6816,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6842,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6868,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6894,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6920,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6946,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6972,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6998,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7024,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7050,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7076,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7102,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7128,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7154,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7180,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7206,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7232,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7258,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7284,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7310,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7336,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7362,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7388,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7414,7 +7432,7 @@
         <v>0.1681974357885422</v>
       </c>
       <c r="H193" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7440,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7466,7 +7484,7 @@
         <v>0.8797798110889723</v>
       </c>
       <c r="H195" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7492,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7518,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7544,7 +7562,7 @@
         <v>0.08864087184884381</v>
       </c>
       <c r="H198" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7570,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7596,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7622,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7648,7 +7666,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7674,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7700,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7726,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7752,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7778,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7804,7 +7822,7 @@
         <v>0.2354671987770182</v>
       </c>
       <c r="H208" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7830,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7856,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7882,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7908,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7934,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7960,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7986,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8012,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8038,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8064,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8090,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8116,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8142,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8168,7 +8186,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8194,7 +8212,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8220,7 +8238,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8246,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8272,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8298,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8324,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8350,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8376,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8402,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8428,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8454,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8480,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8506,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8532,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8558,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8584,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8610,7 +8628,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8636,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8662,7 +8680,7 @@
         <v>0.04157071219544399</v>
       </c>
       <c r="H241" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8688,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8714,7 +8732,7 @@
         <v>0.7243135391080604</v>
       </c>
       <c r="H243" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8740,7 +8758,7 @@
         <v>0.2038266882469191</v>
       </c>
       <c r="H244" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8766,7 +8784,7 @@
         <v>0.1697054133716173</v>
       </c>
       <c r="H245" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8792,7 +8810,7 @@
         <v>0.8114060488090202</v>
       </c>
       <c r="H246" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8818,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8844,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8870,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8896,7 +8914,7 @@
         <v>0.9995491499287315</v>
       </c>
       <c r="H250" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8922,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8948,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8974,7 +8992,7 @@
         <v>0.6774544151921263</v>
       </c>
       <c r="H253" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9000,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9026,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9052,7 +9070,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9078,7 +9096,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9104,7 +9122,7 @@
         <v>0.4463212592290416</v>
       </c>
       <c r="H258" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9130,7 +9148,7 @@
         <v>0.436683606745248</v>
       </c>
       <c r="H259" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9156,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9182,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9208,7 +9226,7 @@
         <v>0.3686565018055978</v>
       </c>
       <c r="H262" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9234,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9260,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9286,7 +9304,7 @@
         <v>0.690051670037509</v>
       </c>
       <c r="H265" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9312,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9338,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9364,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9390,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9416,7 +9434,7 @@
         <v>0.7110682466127172</v>
       </c>
       <c r="H270" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9442,7 +9460,7 @@
         <v>0.60365344069593</v>
       </c>
       <c r="H271" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9468,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9494,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9520,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9546,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9572,7 +9590,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9598,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9624,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9650,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9676,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9702,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9728,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9754,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9806,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9832,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9858,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9884,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9910,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9936,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9962,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9988,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10014,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10040,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10066,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10092,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10118,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10144,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10170,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10196,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10222,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10248,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10274,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10300,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10326,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10352,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10378,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10404,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10430,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10456,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10482,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10508,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10534,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10560,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10586,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10612,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10638,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10664,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10690,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10716,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10742,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10768,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10794,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10820,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10846,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10872,7 +10890,7 @@
         <v>0.4264401793693286</v>
       </c>
       <c r="H326" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10898,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10924,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10950,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10976,7 +10994,7 @@
         <v>0.3813541246141574</v>
       </c>
       <c r="H330" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11002,7 +11020,7 @@
         <v>0.6022604535640776</v>
       </c>
       <c r="H331" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11028,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11054,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11080,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11106,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11132,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11158,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11184,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11210,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11236,7 +11254,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11262,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11288,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11314,7 +11332,7 @@
         <v>0.3837697866871526</v>
       </c>
       <c r="H343" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11340,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11366,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11392,7 +11410,7 @@
         <v>0.4784128470816451</v>
       </c>
       <c r="H346" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11418,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11444,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11470,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11496,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11522,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11548,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11574,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11600,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11626,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11652,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11678,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11704,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11730,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11756,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11782,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11808,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11834,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11860,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11886,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11912,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11938,7 +11956,7 @@
         <v>0.0006356397502235737</v>
       </c>
       <c r="H367" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11964,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11990,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12016,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12042,7 +12060,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12068,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12094,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12120,7 +12138,7 @@
         <v>0.2602324571342513</v>
       </c>
       <c r="H374" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12146,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12172,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12198,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12224,7 +12242,7 @@
         <v>0.6681320098949201</v>
       </c>
       <c r="H378" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12250,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12276,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12302,7 +12320,7 @@
         <v>0.6424743720133275</v>
       </c>
       <c r="H381" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12328,7 +12346,7 @@
         <v>0.4897676148715414</v>
       </c>
       <c r="H382" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12354,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12380,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12406,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12432,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12458,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12484,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12510,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12536,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12562,7 +12580,7 @@
         <v>0.4169759359529258</v>
       </c>
       <c r="H391" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12588,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12614,7 +12632,7 @@
         <v>0.448395870291445</v>
       </c>
       <c r="H393" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12640,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12666,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12692,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12718,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12744,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12770,7 +12788,7 @@
         <v>0.9767965902883136</v>
       </c>
       <c r="H399" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12796,7 +12814,7 @@
         <v>0.9379142164462745</v>
       </c>
       <c r="H400" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12822,7 +12840,7 @@
         <v>0.2273581344949796</v>
       </c>
       <c r="H401" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12848,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12874,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12900,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12926,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12952,7 +12970,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12978,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13004,7 +13022,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13030,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13056,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13082,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13108,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13134,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13160,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13186,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13212,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13238,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13264,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13290,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13316,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13342,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13368,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13394,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13420,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13446,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13472,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13498,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13524,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13550,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13576,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13602,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13628,7 +13646,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13654,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13680,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13706,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13732,7 +13750,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13758,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13784,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13810,7 +13828,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13836,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13862,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13888,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13914,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13940,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13966,7 +13984,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13992,7 +14010,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14018,7 +14036,7 @@
         <v>0.1039579582149335</v>
       </c>
       <c r="H447" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14044,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14070,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14096,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14122,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14148,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14174,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14200,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14226,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14252,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14278,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14304,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14330,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14356,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14382,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14408,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14434,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14460,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14486,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14512,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14538,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14564,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14590,7 +14608,7 @@
         <v>0.3706619595536374</v>
       </c>
       <c r="H469" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14616,7 +14634,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14642,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14668,7 +14686,7 @@
         <v>0.6503847898028786</v>
       </c>
       <c r="H472" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14694,7 +14712,7 @@
         <v>0.6471060540483804</v>
       </c>
       <c r="H473" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14720,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14746,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14772,7 +14790,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14798,7 +14816,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14824,7 +14842,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14850,7 +14868,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14876,7 +14894,7 @@
         <v>0.3695334701414312</v>
       </c>
       <c r="H480" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14902,7 +14920,7 @@
         <v>0.3483093671857184</v>
       </c>
       <c r="H481" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14928,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14954,7 +14972,7 @@
         <v>0.3728858538521013</v>
       </c>
       <c r="H483" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14980,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15006,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15032,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15058,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15084,7 +15102,7 @@
         <v>0.3627014110861483</v>
       </c>
       <c r="H488" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15110,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15136,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15162,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15188,7 +15206,7 @@
         <v>0.3511590155163141</v>
       </c>
       <c r="H492" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15214,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15240,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15266,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15292,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15318,7 +15336,7 @@
         <v>0.4414901040256927</v>
       </c>
       <c r="H497" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15344,7 +15362,7 @@
         <v>0.3093377856830137</v>
       </c>
       <c r="H498" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15370,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15396,7 +15414,7 @@
         <v>0.7080524536027737</v>
       </c>
       <c r="H500" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15422,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15448,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15474,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15500,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15526,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15552,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15578,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15604,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15630,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15656,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15682,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15708,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15734,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15760,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15786,7 +15804,7 @@
         <v>0.1581372089411772</v>
       </c>
       <c r="H515" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15812,7 +15830,7 @@
         <v>0.05250478316833571</v>
       </c>
       <c r="H516" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15838,7 +15856,7 @@
         <v>0.9109665764947299</v>
       </c>
       <c r="H517" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15864,7 +15882,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15890,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15916,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15942,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15968,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15994,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16020,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16046,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16072,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16098,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16124,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16150,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16176,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16202,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16228,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16254,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16280,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16306,7 +16324,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16332,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16358,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16384,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16410,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16436,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16462,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16488,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16514,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16540,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16566,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16592,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16618,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16644,7 +16662,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16670,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16696,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16722,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16748,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16774,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16800,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16826,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16852,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16878,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16904,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16930,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16956,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16982,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17008,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17034,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17060,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17086,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17096,9 +17114,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
       </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
       <c r="F566">
         <v>0</v>
       </c>
@@ -17106,7 +17130,157 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
         <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="683">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2414,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2492,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2518,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2570,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2700,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2726,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2752,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2778,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2830,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2908,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2934,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2986,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3012,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3038,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3064,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3090,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3116,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3142,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3168,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3220,7 +3226,7 @@
         <v>0.2908075432437917</v>
       </c>
       <c r="H31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3246,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3272,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3298,7 +3304,7 @@
         <v>0.4823725662676658</v>
       </c>
       <c r="H34" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3324,7 +3330,7 @@
         <v>0.6315738486230473</v>
       </c>
       <c r="H35" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3350,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3376,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3402,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3428,7 +3434,7 @@
         <v>0.565676411981248</v>
       </c>
       <c r="H39" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3454,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3480,7 +3486,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3506,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3532,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3558,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3584,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3610,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3636,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3688,7 +3694,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3714,7 +3720,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3740,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3766,7 +3772,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3792,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3818,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3844,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3870,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3896,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3922,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3948,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3974,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4000,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4052,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4078,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4104,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4156,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4182,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4208,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4234,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4260,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4338,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4364,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4390,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4416,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4442,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4494,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4520,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4546,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4572,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4598,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4624,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4650,7 +4656,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4676,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4702,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4728,7 +4734,7 @@
         <v>0.8776123663611378</v>
       </c>
       <c r="H89" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4754,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4780,7 +4786,7 @@
         <v>0.8988625540685428</v>
       </c>
       <c r="H91" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4806,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4832,7 +4838,7 @@
         <v>0.1221860349289169</v>
       </c>
       <c r="H93" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4858,7 +4864,7 @@
         <v>0.8700559008985698</v>
       </c>
       <c r="H94" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4884,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4910,7 +4916,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4936,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4962,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4988,7 +4994,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5014,7 +5020,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5040,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5066,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5092,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5170,7 +5176,7 @@
         <v>0.924662230481797</v>
       </c>
       <c r="H106" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5196,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5222,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5248,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5274,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5300,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5326,7 +5332,7 @@
         <v>0.171267841747225</v>
       </c>
       <c r="H112" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5352,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5378,7 +5384,7 @@
         <v>0.2519750577644785</v>
       </c>
       <c r="H114" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5404,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5430,7 +5436,7 @@
         <v>0.2646607957914196</v>
       </c>
       <c r="H116" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5456,7 +5462,7 @@
         <v>0.5666895484282827</v>
       </c>
       <c r="H117" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5482,7 +5488,7 @@
         <v>0.5892807534781774</v>
       </c>
       <c r="H118" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5508,7 +5514,7 @@
         <v>0.5377774003224002</v>
       </c>
       <c r="H119" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5534,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5560,7 +5566,7 @@
         <v>0.488632931106846</v>
       </c>
       <c r="H121" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5586,7 +5592,7 @@
         <v>0.5229171335079502</v>
       </c>
       <c r="H122" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5612,7 +5618,7 @@
         <v>0.6533875755545993</v>
       </c>
       <c r="H123" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5638,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5664,7 +5670,7 @@
         <v>0.8365721415867087</v>
       </c>
       <c r="H125" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5690,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5716,7 +5722,7 @@
         <v>0.7431344435108137</v>
       </c>
       <c r="H127" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5742,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5768,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5794,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5820,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5846,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5872,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5898,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5924,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5950,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5976,7 +5982,7 @@
         <v>0.7268485085852595</v>
       </c>
       <c r="H137" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6002,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6028,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6054,7 +6060,7 @@
         <v>0.7939577816068148</v>
       </c>
       <c r="H140" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6080,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6106,7 +6112,7 @@
         <v>0.8036524285692493</v>
       </c>
       <c r="H142" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6132,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6158,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6184,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6210,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6236,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6262,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6288,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6314,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6340,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6366,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6418,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6444,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6470,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6496,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6522,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6548,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6574,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6600,7 +6606,7 @@
         <v>0.7978898089328831</v>
       </c>
       <c r="H161" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6626,7 +6632,7 @@
         <v>0.8550681661092002</v>
       </c>
       <c r="H162" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6652,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6678,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6704,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6730,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6756,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6782,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6808,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6834,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6860,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6886,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6912,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6938,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6964,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6990,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7016,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7042,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7068,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7094,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7120,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7146,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7172,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7198,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7224,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7250,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7276,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7302,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7328,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7354,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7380,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7406,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7432,7 +7438,7 @@
         <v>0.1681974357885422</v>
       </c>
       <c r="H193" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7458,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7484,7 +7490,7 @@
         <v>0.8797798110889723</v>
       </c>
       <c r="H195" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7510,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7536,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7562,7 +7568,7 @@
         <v>0.08864087184884381</v>
       </c>
       <c r="H198" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7588,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7614,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7640,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7666,7 +7672,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7692,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7718,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7744,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7770,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7796,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7822,7 +7828,7 @@
         <v>0.2354671987770182</v>
       </c>
       <c r="H208" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7848,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7874,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7900,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7926,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7952,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7978,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8004,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8030,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8056,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8082,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8108,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8134,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8160,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8186,7 +8192,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8212,7 +8218,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8238,7 +8244,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8264,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8290,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8316,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8342,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8368,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8394,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8420,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8446,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8472,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8498,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8524,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8550,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8576,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8602,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8628,7 +8634,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8654,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8680,7 +8686,7 @@
         <v>0.04157071219544399</v>
       </c>
       <c r="H241" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8706,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8732,7 +8738,7 @@
         <v>0.7243135391080604</v>
       </c>
       <c r="H243" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8758,7 +8764,7 @@
         <v>0.2038266882469191</v>
       </c>
       <c r="H244" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8784,7 +8790,7 @@
         <v>0.1697054133716173</v>
       </c>
       <c r="H245" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8810,7 +8816,7 @@
         <v>0.8114060488090202</v>
       </c>
       <c r="H246" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8836,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8862,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8888,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8914,7 +8920,7 @@
         <v>0.9995491499287315</v>
       </c>
       <c r="H250" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8940,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8966,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8992,7 +8998,7 @@
         <v>0.6774544151921263</v>
       </c>
       <c r="H253" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9018,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9070,7 +9076,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9096,7 +9102,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9122,7 +9128,7 @@
         <v>0.4463212592290416</v>
       </c>
       <c r="H258" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9148,7 +9154,7 @@
         <v>0.436683606745248</v>
       </c>
       <c r="H259" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9174,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9200,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9226,7 +9232,7 @@
         <v>0.3686565018055978</v>
       </c>
       <c r="H262" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9252,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9278,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9304,7 +9310,7 @@
         <v>0.690051670037509</v>
       </c>
       <c r="H265" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9330,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9356,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9382,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9408,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9434,7 +9440,7 @@
         <v>0.7110682466127172</v>
       </c>
       <c r="H270" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9460,7 +9466,7 @@
         <v>0.60365344069593</v>
       </c>
       <c r="H271" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9486,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9512,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9538,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9564,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9590,7 +9596,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9616,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9642,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9668,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9694,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9720,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9746,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9772,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9798,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9824,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9850,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9876,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9902,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9928,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9954,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9980,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10006,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10032,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10058,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10084,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10110,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10136,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10162,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10188,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10214,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10240,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10266,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10292,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10318,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10344,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10370,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10396,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10422,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10448,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10474,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10500,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10526,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10552,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10578,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10604,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10630,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10656,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10682,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10708,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10734,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10760,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10786,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10812,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10838,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10864,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10890,7 +10896,7 @@
         <v>0.4264401793693286</v>
       </c>
       <c r="H326" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10916,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10942,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10968,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10994,7 +11000,7 @@
         <v>0.3813541246141574</v>
       </c>
       <c r="H330" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11020,7 +11026,7 @@
         <v>0.6022604535640776</v>
       </c>
       <c r="H331" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11046,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11072,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11098,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11124,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11150,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11176,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11202,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11228,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11254,7 +11260,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11280,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11306,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11332,7 +11338,7 @@
         <v>0.3837697866871526</v>
       </c>
       <c r="H343" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11358,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11384,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11410,7 +11416,7 @@
         <v>0.4784128470816451</v>
       </c>
       <c r="H346" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11436,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11462,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11488,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11514,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11540,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11566,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11592,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11618,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11644,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11670,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11696,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11722,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11748,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11774,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11800,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11826,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11852,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11878,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11904,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11930,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11956,7 +11962,7 @@
         <v>0.0006356397502235737</v>
       </c>
       <c r="H367" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11982,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12008,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12034,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12060,7 +12066,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12086,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12112,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12138,7 +12144,7 @@
         <v>0.2602324571342513</v>
       </c>
       <c r="H374" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12164,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12190,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12216,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12242,7 +12248,7 @@
         <v>0.6681320098949201</v>
       </c>
       <c r="H378" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12268,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12294,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12320,7 +12326,7 @@
         <v>0.6424743720133275</v>
       </c>
       <c r="H381" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12346,7 +12352,7 @@
         <v>0.4897676148715414</v>
       </c>
       <c r="H382" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12372,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12398,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12424,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12450,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12476,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12502,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12554,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12580,7 +12586,7 @@
         <v>0.4169759359529258</v>
       </c>
       <c r="H391" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12606,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12632,7 +12638,7 @@
         <v>0.448395870291445</v>
       </c>
       <c r="H393" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12658,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12684,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12710,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12736,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12762,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12788,7 +12794,7 @@
         <v>0.9767965902883136</v>
       </c>
       <c r="H399" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12814,7 +12820,7 @@
         <v>0.9379142164462745</v>
       </c>
       <c r="H400" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12840,7 +12846,7 @@
         <v>0.2273581344949796</v>
       </c>
       <c r="H401" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12866,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12892,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12918,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12944,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12970,7 +12976,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12996,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13022,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13048,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13074,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13100,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13126,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13152,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13178,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13204,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13230,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13256,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13282,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13308,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13334,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13360,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13386,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13412,7 +13418,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13438,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13464,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13490,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13516,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13542,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13568,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13594,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13620,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13646,7 +13652,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13672,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13698,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13724,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13750,7 +13756,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13776,7 +13782,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13802,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13828,7 +13834,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13854,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13880,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13906,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13932,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13958,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13984,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14010,7 +14016,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14036,7 +14042,7 @@
         <v>0.1039579582149335</v>
       </c>
       <c r="H447" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14062,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14088,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14114,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14140,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14166,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14192,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14218,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14244,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14270,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14296,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14322,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14348,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14374,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14400,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14426,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14452,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14478,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14504,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14530,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14556,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14582,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14608,7 +14614,7 @@
         <v>0.3706619595536374</v>
       </c>
       <c r="H469" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14634,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14660,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14686,7 +14692,7 @@
         <v>0.6503847898028786</v>
       </c>
       <c r="H472" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14712,7 +14718,7 @@
         <v>0.6471060540483804</v>
       </c>
       <c r="H473" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14738,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14764,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14790,7 +14796,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14816,7 +14822,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14842,7 +14848,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14868,7 +14874,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14894,7 +14900,7 @@
         <v>0.3695334701414312</v>
       </c>
       <c r="H480" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14920,7 +14926,7 @@
         <v>0.3483093671857184</v>
       </c>
       <c r="H481" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14946,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14972,7 +14978,7 @@
         <v>0.3728858538521013</v>
       </c>
       <c r="H483" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14998,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15024,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15050,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15076,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15102,7 +15108,7 @@
         <v>0.3627014110861483</v>
       </c>
       <c r="H488" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15128,7 +15134,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15154,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15180,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15206,7 +15212,7 @@
         <v>0.3511590155163141</v>
       </c>
       <c r="H492" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15232,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15258,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15284,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15310,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15336,7 +15342,7 @@
         <v>0.4414901040256927</v>
       </c>
       <c r="H497" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15362,7 +15368,7 @@
         <v>0.3093377856830137</v>
       </c>
       <c r="H498" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15388,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15414,7 +15420,7 @@
         <v>0.7080524536027737</v>
       </c>
       <c r="H500" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15440,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15466,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15492,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15518,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15544,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15570,7 +15576,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15596,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15622,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15648,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15674,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15700,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15726,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15752,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15778,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15804,7 +15810,7 @@
         <v>0.1581372089411772</v>
       </c>
       <c r="H515" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15830,7 +15836,7 @@
         <v>0.05250478316833571</v>
       </c>
       <c r="H516" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15856,7 +15862,7 @@
         <v>0.9109665764947299</v>
       </c>
       <c r="H517" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15882,7 +15888,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15908,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15934,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15960,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15986,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16012,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16038,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16064,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16090,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16116,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16142,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16168,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16194,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16220,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16246,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16272,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16298,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16324,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16350,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16376,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16402,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16428,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16454,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16480,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16506,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16532,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16558,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16584,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16610,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16636,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16662,7 +16668,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16688,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16714,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16740,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16766,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16792,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16818,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16844,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16870,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16896,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16922,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16948,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16974,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17000,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17026,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17052,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17078,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17104,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17130,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17156,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17182,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17208,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17234,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17260,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17270,9 +17276,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>0</v>
       </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
       <c r="F572">
         <v>0</v>
       </c>
@@ -17280,7 +17292,53 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
         <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
